--- a/data/trans_orig/P5711-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P5711-Habitat-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>518655</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>496016</v>
+        <v>495181</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>539399</v>
+        <v>541237</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.7473292839928545</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.7147084402635053</v>
+        <v>0.7135050327776243</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.7772187283761665</v>
+        <v>0.7798669515060879</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>426</v>
@@ -765,19 +765,19 @@
         <v>414580</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>388471</v>
+        <v>386393</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>438252</v>
+        <v>439067</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.6022800697458723</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.5643499481342016</v>
+        <v>0.5613318990237107</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.6366690901003119</v>
+        <v>0.6378527673041368</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>934</v>
@@ -786,19 +786,19 @@
         <v>933236</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>898823</v>
+        <v>897907</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>967240</v>
+        <v>967646</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.6751016819137531</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.6502075916755776</v>
+        <v>0.6495447004884476</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.6997004315502972</v>
+        <v>0.6999938556508072</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>115279</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>98378</v>
+        <v>96224</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>135192</v>
+        <v>134964</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1661047650695831</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1417522754717196</v>
+        <v>0.1386485517920591</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1947984619166855</v>
+        <v>0.1944693030141851</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>162</v>
@@ -836,19 +836,19 @@
         <v>166227</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>146153</v>
+        <v>144784</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>190572</v>
+        <v>189151</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.241485409554836</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2123233686028848</v>
+        <v>0.2103341460162136</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2768526406974992</v>
+        <v>0.2747889224253824</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>278</v>
@@ -857,19 +857,19 @@
         <v>281505</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>250461</v>
+        <v>251975</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>314095</v>
+        <v>313937</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2036407367231512</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1811832301242603</v>
+        <v>0.1822781775730608</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2272163382873353</v>
+        <v>0.2271019085851373</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>50813</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>38550</v>
+        <v>37854</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>65055</v>
+        <v>65426</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.07321667593336659</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.0555460149907093</v>
+        <v>0.05454360132758153</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.09373710339050852</v>
+        <v>0.09427166813948593</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>57</v>
@@ -907,19 +907,19 @@
         <v>56125</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>43619</v>
+        <v>43297</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>71785</v>
+        <v>70657</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.08153550693461545</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.06336725456839015</v>
+        <v>0.06290008368602361</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1042861291837495</v>
+        <v>0.1026462080508282</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>107</v>
@@ -928,19 +928,19 @@
         <v>106938</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>87873</v>
+        <v>89101</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>127630</v>
+        <v>128156</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.07735905766525519</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.06356706882326664</v>
+        <v>0.06445556592016186</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.09232727605182407</v>
+        <v>0.09270765093540263</v>
       </c>
     </row>
     <row r="7">
@@ -957,19 +957,19 @@
         <v>8301</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>3873</v>
+        <v>3819</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>16140</v>
+        <v>16410</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01196073795658359</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.005581217143971719</v>
+        <v>0.005502712569745361</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.02325608237417785</v>
+        <v>0.02364569253595549</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>38</v>
@@ -978,19 +978,19 @@
         <v>38232</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>27538</v>
+        <v>27746</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>51527</v>
+        <v>51248</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.05554178283991124</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.04000622439319682</v>
+        <v>0.04030813783849933</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.0748557077346942</v>
+        <v>0.07445045759417004</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>46</v>
@@ -999,19 +999,19 @@
         <v>46533</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>35343</v>
+        <v>33938</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>62363</v>
+        <v>61232</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.03366202316771626</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02556676570351424</v>
+        <v>0.02455063372045421</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.04511315115993322</v>
+        <v>0.04429534763922716</v>
       </c>
     </row>
     <row r="8">
@@ -1031,7 +1031,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>4852</v>
+        <v>5000</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.001388537047612242</v>
@@ -1040,7 +1040,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.006991669493364158</v>
+        <v>0.007205187076873803</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>13</v>
@@ -1049,19 +1049,19 @@
         <v>13187</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>7298</v>
+        <v>7197</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>22598</v>
+        <v>21176</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.01915723092476491</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.0106025067251931</v>
+        <v>0.01045538018819819</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.03282975473889588</v>
+        <v>0.03076310562967287</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>14</v>
@@ -1070,19 +1070,19 @@
         <v>14151</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>8285</v>
+        <v>7672</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>24554</v>
+        <v>24332</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.01023650053012418</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.005993520534982159</v>
+        <v>0.005550201852466784</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.01776268787504905</v>
+        <v>0.01760185739296129</v>
       </c>
     </row>
     <row r="9">
@@ -1174,19 +1174,19 @@
         <v>657176</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>626373</v>
+        <v>626860</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>686601</v>
+        <v>687613</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.6840478746492373</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.6519851164664406</v>
+        <v>0.6524921375728683</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.7146761840144478</v>
+        <v>0.7157301363491383</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>570</v>
@@ -1195,19 +1195,19 @@
         <v>599956</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>569641</v>
+        <v>567963</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>630465</v>
+        <v>629106</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.6195375562784871</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.5882332074439403</v>
+        <v>0.5865001851026671</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.6510423367829875</v>
+        <v>0.6496388071396078</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1182</v>
@@ -1216,19 +1216,19 @@
         <v>1257132</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1215697</v>
+        <v>1213656</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1298433</v>
+        <v>1298530</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.6516643446701635</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.6301855772605103</v>
+        <v>0.629127563571833</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.6730740731539483</v>
+        <v>0.6731244237168674</v>
       </c>
     </row>
     <row r="11">
@@ -1245,19 +1245,19 @@
         <v>203016</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>178323</v>
+        <v>177652</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>230512</v>
+        <v>234354</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2113170695310084</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1856149476705566</v>
+        <v>0.184916312429152</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2399381742616866</v>
+        <v>0.2439369575358859</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>198</v>
@@ -1266,19 +1266,19 @@
         <v>215353</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>190133</v>
+        <v>190665</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>243158</v>
+        <v>244490</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.22238202772238</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1963386279166945</v>
+        <v>0.1968880621051642</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2510947212615579</v>
+        <v>0.2524699863682365</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>387</v>
@@ -1287,19 +1287,19 @@
         <v>418369</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>379616</v>
+        <v>380245</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>453104</v>
+        <v>456330</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2168715670805035</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1967832696889551</v>
+        <v>0.1971088932113977</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.234877092702259</v>
+        <v>0.2365498690730354</v>
       </c>
     </row>
     <row r="12">
@@ -1316,19 +1316,19 @@
         <v>74699</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>58353</v>
+        <v>59358</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>92413</v>
+        <v>94042</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.07775377568642652</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.06073856577967069</v>
+        <v>0.0617854454055097</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.09619222433489522</v>
+        <v>0.09788762486400568</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>88</v>
@@ -1337,19 +1337,19 @@
         <v>96348</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>78420</v>
+        <v>76194</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>116668</v>
+        <v>115266</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.09949226831610775</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.08097938486526593</v>
+        <v>0.07868053216996386</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1204754465938307</v>
+        <v>0.1190285013309678</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>158</v>
@@ -1358,19 +1358,19 @@
         <v>171047</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>145428</v>
+        <v>143676</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>198471</v>
+        <v>196442</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.08866628000437676</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.07538622014149754</v>
+        <v>0.07447788022961316</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1028824147782709</v>
+        <v>0.1018301796845939</v>
       </c>
     </row>
     <row r="13">
@@ -1387,19 +1387,19 @@
         <v>17973</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>10865</v>
+        <v>10747</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>29281</v>
+        <v>28254</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01870753803625064</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01130959500228245</v>
+        <v>0.01118667599640591</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.0304787034431413</v>
+        <v>0.02940941959034588</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>42</v>
@@ -1408,19 +1408,19 @@
         <v>45768</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>33962</v>
+        <v>34133</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>60587</v>
+        <v>61582</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.04726185685178368</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.03507028349348003</v>
+        <v>0.0352475681188273</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.06256497707716645</v>
+        <v>0.06359207840719355</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>59</v>
@@ -1429,19 +1429,19 @@
         <v>63741</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>48972</v>
+        <v>48773</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>80259</v>
+        <v>81777</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.03304151844044766</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02538606859743667</v>
+        <v>0.02528264511087044</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.0416040918510692</v>
+        <v>0.042391077766237</v>
       </c>
     </row>
     <row r="14">
@@ -1458,19 +1458,19 @@
         <v>7853</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3000</v>
+        <v>3016</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>15669</v>
+        <v>16264</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.008173742097077129</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.003123046630406167</v>
+        <v>0.003139807951068106</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.01630986937221587</v>
+        <v>0.01692883901008682</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>10</v>
@@ -1479,19 +1479,19 @@
         <v>10968</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>5550</v>
+        <v>5471</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>19644</v>
+        <v>19777</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.01132629083124147</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.005731047743331501</v>
+        <v>0.005649447558962313</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.02028541967823065</v>
+        <v>0.02042295307605324</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>17</v>
@@ -1500,19 +1500,19 @@
         <v>18821</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>11377</v>
+        <v>11262</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>30284</v>
+        <v>28899</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.009756289804508553</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.005897438357084667</v>
+        <v>0.005837962496780805</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.01569847117223727</v>
+        <v>0.01498054254308008</v>
       </c>
     </row>
     <row r="15">
@@ -1604,19 +1604,19 @@
         <v>502236</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>474253</v>
+        <v>479672</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>522715</v>
+        <v>523802</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.740205948578713</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.6989637808591251</v>
+        <v>0.7069500236489846</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.7703878522724464</v>
+        <v>0.7719897801541082</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>455</v>
@@ -1625,19 +1625,19 @@
         <v>447555</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>421869</v>
+        <v>419767</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>472281</v>
+        <v>470742</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.654472054699466</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.6169110675627925</v>
+        <v>0.6138373783816599</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.6906294242797648</v>
+        <v>0.6883799608539666</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>929</v>
@@ -1646,19 +1646,19 @@
         <v>949791</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>913632</v>
+        <v>918213</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>982934</v>
+        <v>984808</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.6971712240751327</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.6706292856685349</v>
+        <v>0.6739920556184723</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.7214992388709563</v>
+        <v>0.7228743194810587</v>
       </c>
     </row>
     <row r="17">
@@ -1675,19 +1675,19 @@
         <v>109684</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>92907</v>
+        <v>91351</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>132322</v>
+        <v>130667</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1616550442472793</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1369286126874025</v>
+        <v>0.134635217570284</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1950184367107696</v>
+        <v>0.192579017897102</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>145</v>
@@ -1696,19 +1696,19 @@
         <v>139706</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>120026</v>
+        <v>119292</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>160454</v>
+        <v>160386</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2042958883739504</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1755172295963686</v>
+        <v>0.1744439599798777</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2346363448433431</v>
+        <v>0.2345368514806791</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>252</v>
@@ -1717,19 +1717,19 @@
         <v>249390</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>222354</v>
+        <v>220932</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>278726</v>
+        <v>278928</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1830589126190575</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1632134540778294</v>
+        <v>0.1621695659154367</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2045917587785126</v>
+        <v>0.2047399961845192</v>
       </c>
     </row>
     <row r="18">
@@ -1746,19 +1746,19 @@
         <v>41879</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>30837</v>
+        <v>29136</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>57828</v>
+        <v>55330</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.06172201840093712</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.04544746059892044</v>
+        <v>0.04294129084256978</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.08522758845089916</v>
+        <v>0.08154611783701944</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>64</v>
@@ -1767,19 +1767,19 @@
         <v>63861</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>49705</v>
+        <v>49607</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>80342</v>
+        <v>80830</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.09338508377313803</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.07268551538793325</v>
+        <v>0.07254115466261489</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1174861451989698</v>
+        <v>0.1182003566218417</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>103</v>
@@ -1788,19 +1788,19 @@
         <v>105739</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>87062</v>
+        <v>87661</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>127324</v>
+        <v>125995</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.07761551435191667</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.06390551848447966</v>
+        <v>0.064345335943309</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.09345912953606424</v>
+        <v>0.0924835742069339</v>
       </c>
     </row>
     <row r="19">
@@ -1817,19 +1817,19 @@
         <v>21134</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>12303</v>
+        <v>13114</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>32361</v>
+        <v>32916</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.03114814269878497</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.01813293105530693</v>
+        <v>0.01932798414300721</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.04769395520924838</v>
+        <v>0.04851195420128965</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>28</v>
@@ -1838,19 +1838,19 @@
         <v>28247</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>18904</v>
+        <v>18994</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>39547</v>
+        <v>40389</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.04130670539850533</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.02764420694597206</v>
+        <v>0.02777558980617583</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.05783123654785687</v>
+        <v>0.05906136848627765</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>46</v>
@@ -1859,19 +1859,19 @@
         <v>49382</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>36886</v>
+        <v>36269</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>67018</v>
+        <v>65697</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.03624730392142292</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.02707527284949925</v>
+        <v>0.02662245992999881</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.04919286324735408</v>
+        <v>0.04822301773570897</v>
       </c>
     </row>
     <row r="20">
@@ -1888,19 +1888,19 @@
         <v>3575</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>948</v>
+        <v>943</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>9324</v>
+        <v>10303</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.005268846074285611</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.001397340416759789</v>
+        <v>0.001390499624337188</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.01374212572085169</v>
+        <v>0.0151843128410599</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>4</v>
@@ -1909,19 +1909,19 @@
         <v>4473</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1082</v>
+        <v>1075</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>10313</v>
+        <v>11361</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.00654026775494023</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.001582681560931309</v>
+        <v>0.001571781046785835</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.01508035408393378</v>
+        <v>0.01661347831832494</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>7</v>
@@ -1930,19 +1930,19 @@
         <v>8047</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>3067</v>
+        <v>3538</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>15900</v>
+        <v>16142</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.005907045032470283</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.002250981494953347</v>
+        <v>0.002596786077556341</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.01167102030071086</v>
+        <v>0.01184872275918549</v>
       </c>
     </row>
     <row r="21">
@@ -2034,19 +2034,19 @@
         <v>621317</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>589734</v>
+        <v>591257</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>647761</v>
+        <v>648988</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.6594163493875258</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.62589682309074</v>
+        <v>0.6275133381564839</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.6874828258179999</v>
+        <v>0.6887845098699404</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>617</v>
@@ -2055,19 +2055,19 @@
         <v>635458</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>604186</v>
+        <v>600702</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>669524</v>
+        <v>665060</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.611833429858178</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.5817248333488169</v>
+        <v>0.5783699344306491</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.6446337759275771</v>
+        <v>0.6403356585246894</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1277</v>
@@ -2076,19 +2076,19 @@
         <v>1256774</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1212886</v>
+        <v>1216257</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1297837</v>
+        <v>1295818</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.6344671669323226</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.6123106512011249</v>
+        <v>0.6140125125456425</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.6551971046940422</v>
+        <v>0.654177866383423</v>
       </c>
     </row>
     <row r="23">
@@ -2105,19 +2105,19 @@
         <v>214750</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>191888</v>
+        <v>188092</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>239197</v>
+        <v>242444</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.2279188611487349</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.2036547762631457</v>
+        <v>0.1996255131949464</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2538652042496159</v>
+        <v>0.2573110951058937</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>219</v>
@@ -2126,19 +2126,19 @@
         <v>227451</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>201232</v>
+        <v>201803</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>257057</v>
+        <v>254849</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.2189949216401917</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1937507615200459</v>
+        <v>0.1943010481066239</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2475009057188193</v>
+        <v>0.2453743079428139</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>443</v>
@@ -2147,19 +2147,19 @@
         <v>442201</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>407652</v>
+        <v>406399</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>483532</v>
+        <v>480523</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.223239766271412</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.2057983272096285</v>
+        <v>0.2051656534568788</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2441053192028815</v>
+        <v>0.2425861749042443</v>
       </c>
     </row>
     <row r="24">
@@ -2176,19 +2176,19 @@
         <v>67566</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>51940</v>
+        <v>54093</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>84118</v>
+        <v>84042</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.07170945260055286</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.05512529011000871</v>
+        <v>0.05740960715127533</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.08927648838149936</v>
+        <v>0.08919512279957949</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>97</v>
@@ -2197,19 +2197,19 @@
         <v>104356</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>84696</v>
+        <v>86716</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>123620</v>
+        <v>128318</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1004760338745511</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.08154751987455558</v>
+        <v>0.08349221579714571</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1190244865417767</v>
+        <v>0.1235471757142803</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>168</v>
@@ -2218,19 +2218,19 @@
         <v>171922</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>147193</v>
+        <v>145297</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>196933</v>
+        <v>198524</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.08679265245286021</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.07430868152947924</v>
+        <v>0.07335133838609172</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.0994193881955652</v>
+        <v>0.1002223613198615</v>
       </c>
     </row>
     <row r="25">
@@ -2247,19 +2247,19 @@
         <v>32925</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>22956</v>
+        <v>22804</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>46539</v>
+        <v>45589</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.03494392900760444</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.02436349317353352</v>
+        <v>0.02420263590204893</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.04939247867245623</v>
+        <v>0.04838502497195608</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>53</v>
@@ -2268,19 +2268,19 @@
         <v>58936</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>44536</v>
+        <v>43471</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>76095</v>
+        <v>75259</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.05674535545811826</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.04288023539792436</v>
+        <v>0.04185448069537843</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.07326604042978575</v>
+        <v>0.07246160668743946</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>87</v>
@@ -2289,19 +2289,19 @@
         <v>91861</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>74615</v>
+        <v>75521</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>114599</v>
+        <v>114093</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.04637508480211347</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.03766871408533011</v>
+        <v>0.03812584325216068</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.05785395107464635</v>
+        <v>0.05759844298380286</v>
       </c>
     </row>
     <row r="26">
@@ -2318,19 +2318,19 @@
         <v>5664</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>1745</v>
+        <v>1696</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>14236</v>
+        <v>14186</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.006011407855582065</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.00185252448291125</v>
+        <v>0.001799904946235942</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.01510911122036589</v>
+        <v>0.01505606655057917</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>11</v>
@@ -2339,19 +2339,19 @@
         <v>12412</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>6570</v>
+        <v>6561</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>21164</v>
+        <v>22392</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.01195025916896093</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.006325828038327839</v>
+        <v>0.00631746585450969</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.02037748824262377</v>
+        <v>0.02155972954794535</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>16</v>
@@ -2360,19 +2360,19 @@
         <v>18076</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>10615</v>
+        <v>10446</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>29186</v>
+        <v>29490</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.00912532954129169</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.005358887989256662</v>
+        <v>0.005273399403369322</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.01473418817507364</v>
+        <v>0.01488759887314534</v>
       </c>
     </row>
     <row r="27">
@@ -2464,19 +2464,19 @@
         <v>2299384</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>2248224</v>
+        <v>2241576</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>2359147</v>
+        <v>2351266</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.7020036663805855</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.6863845522900117</v>
+        <v>0.6843546314401748</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.7202494335502831</v>
+        <v>0.7178432445640287</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>2068</v>
@@ -2485,19 +2485,19 @@
         <v>2097548</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>2038502</v>
+        <v>2035420</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>2150332</v>
+        <v>2151956</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.6207238851557068</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.6032503288340347</v>
+        <v>0.6023383989349834</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.636344154380786</v>
+        <v>0.6368245794441608</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>4322</v>
@@ -2506,19 +2506,19 @@
         <v>4396932</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>4319171</v>
+        <v>4310776</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>4470017</v>
+        <v>4477147</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.6607302462003106</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.6490450425806347</v>
+        <v>0.6477834400500146</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.671712655070546</v>
+        <v>0.6727841151412496</v>
       </c>
     </row>
     <row r="29">
@@ -2535,19 +2535,19 @@
         <v>642729</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>598782</v>
+        <v>599923</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>690890</v>
+        <v>692143</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1962256132492007</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1828086865671425</v>
+        <v>0.1831569330017387</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.21092931063757</v>
+        <v>0.2113117529012352</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>724</v>
@@ -2556,19 +2556,19 @@
         <v>748737</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>704330</v>
+        <v>702656</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>801392</v>
+        <v>802193</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.2215723377376142</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.2084311918442083</v>
+        <v>0.2079356757530266</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.2371544193561454</v>
+        <v>0.2373915235258602</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>1360</v>
@@ -2577,19 +2577,19 @@
         <v>1391466</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>1327870</v>
+        <v>1324136</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>1459746</v>
+        <v>1458524</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.2090965387639921</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1995400182253631</v>
+        <v>0.198978887059366</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2193570658337522</v>
+        <v>0.2191734967657815</v>
       </c>
     </row>
     <row r="30">
@@ -2606,19 +2606,19 @@
         <v>234958</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>206871</v>
+        <v>206332</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>267399</v>
+        <v>265747</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.07173276004032955</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.06315795286757341</v>
+        <v>0.06299340638063394</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.0816370987977434</v>
+        <v>0.0811327589607941</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>306</v>
@@ -2627,19 +2627,19 @@
         <v>320689</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>287287</v>
+        <v>285781</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>356079</v>
+        <v>359298</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.09490089734464634</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.08501620421917842</v>
+        <v>0.08457075278763745</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1053738609878905</v>
+        <v>0.1063263100330762</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>536</v>
@@ -2648,19 +2648,19 @@
         <v>555647</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>510478</v>
+        <v>507779</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>599808</v>
+        <v>602188</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.08349741111769587</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.07670993963330215</v>
+        <v>0.07630435259460377</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.09013361223658814</v>
+        <v>0.09049129113235223</v>
       </c>
     </row>
     <row r="31">
@@ -2677,19 +2677,19 @@
         <v>80333</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>63972</v>
+        <v>63599</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>100918</v>
+        <v>100764</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.02452565053046347</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.01953076943070683</v>
+        <v>0.01941686215262766</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.0308101862709879</v>
+        <v>0.03076320360803734</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>161</v>
@@ -2698,19 +2698,19 @@
         <v>171184</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>146851</v>
+        <v>149343</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>197662</v>
+        <v>201042</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.05065816457883793</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.04345741869314614</v>
+        <v>0.04419487623064964</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.05849384222364972</v>
+        <v>0.05949410686127833</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>238</v>
@@ -2719,19 +2719,19 @@
         <v>251517</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>220220</v>
+        <v>220189</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>285242</v>
+        <v>284683</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.03779559560698094</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.03309265035893916</v>
+        <v>0.03308795263486466</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.04286352713272008</v>
+        <v>0.04277955999701157</v>
       </c>
     </row>
     <row r="32">
@@ -2748,19 +2748,19 @@
         <v>18055</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>11026</v>
+        <v>10767</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>29097</v>
+        <v>29818</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.005512309799420719</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.003366275509142251</v>
+        <v>0.003287031686259113</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.008883227782852306</v>
+        <v>0.009103449626760593</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>38</v>
@@ -2769,19 +2769,19 @@
         <v>41039</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>29642</v>
+        <v>30761</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>57175</v>
+        <v>57399</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.01214471518319479</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.00877198005216847</v>
+        <v>0.009102949523280618</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.0169198110503753</v>
+        <v>0.01698596104953799</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>54</v>
@@ -2790,19 +2790,19 @@
         <v>59095</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>44865</v>
+        <v>44275</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>76758</v>
+        <v>75559</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.008880208311020496</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.006741968682496328</v>
+        <v>0.006653310909868097</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.01153440802621494</v>
+        <v>0.01135427923235089</v>
       </c>
     </row>
     <row r="33">
@@ -3134,19 +3134,19 @@
         <v>526388</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>501643</v>
+        <v>500031</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>549411</v>
+        <v>549067</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.7493021474777785</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.714078444639619</v>
+        <v>0.7117839776940595</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.7820754712839649</v>
+        <v>0.7815851048721467</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>455</v>
@@ -3155,19 +3155,19 @@
         <v>487242</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>462079</v>
+        <v>462292</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>513171</v>
+        <v>510878</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.700928903319345</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.6647310692186029</v>
+        <v>0.6650367256277768</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.7382304876315338</v>
+        <v>0.7349315621606287</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>963</v>
@@ -3176,19 +3176,19 @@
         <v>1013629</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>977107</v>
+        <v>980677</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1048030</v>
+        <v>1045769</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.7252430088927959</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.69911154493744</v>
+        <v>0.701665826822928</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.7498566990401361</v>
+        <v>0.7482388070021634</v>
       </c>
     </row>
     <row r="5">
@@ -3205,19 +3205,19 @@
         <v>132864</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>112673</v>
+        <v>112525</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>156125</v>
+        <v>157444</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1891297556434066</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1603871426264769</v>
+        <v>0.1601765223808665</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2222403557838895</v>
+        <v>0.2241184222675029</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>155</v>
@@ -3226,19 +3226,19 @@
         <v>164793</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>142349</v>
+        <v>142077</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>188658</v>
+        <v>187696</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2370649998748051</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2047778304640078</v>
+        <v>0.2043873961955689</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2713963351923187</v>
+        <v>0.2700127708482423</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>276</v>
@@ -3247,19 +3247,19 @@
         <v>297657</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>264764</v>
+        <v>269414</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>328827</v>
+        <v>328412</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2129710485757339</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1894361362835944</v>
+        <v>0.192763650553787</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2352726899142621</v>
+        <v>0.2349759036438362</v>
       </c>
     </row>
     <row r="6">
@@ -3276,19 +3276,19 @@
         <v>33412</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>23726</v>
+        <v>23289</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>45311</v>
+        <v>45176</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.04756182368116708</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.03377370662064058</v>
+        <v>0.03315184296925786</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.0644986769961742</v>
+        <v>0.06430652385929135</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>22</v>
@@ -3297,19 +3297,19 @@
         <v>24286</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>15659</v>
+        <v>15567</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>36692</v>
+        <v>35252</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.03493725218901937</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.02252647386196302</v>
+        <v>0.02239459073958289</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.05278359306585834</v>
+        <v>0.05071188474024946</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>56</v>
@@ -3318,19 +3318,19 @@
         <v>57699</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>43913</v>
+        <v>44143</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>74522</v>
+        <v>75672</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.04128280889954947</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.03141936058097387</v>
+        <v>0.03158362958888793</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.05331968333929086</v>
+        <v>0.05414269884560739</v>
       </c>
     </row>
     <row r="7">
@@ -3347,19 +3347,19 @@
         <v>5292</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>2093</v>
+        <v>2069</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>11607</v>
+        <v>11940</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.007533413251030957</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.002978697340346089</v>
+        <v>0.002945416064065673</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01652284670719073</v>
+        <v>0.01699600983193314</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>13</v>
@@ -3368,19 +3368,19 @@
         <v>14842</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>8425</v>
+        <v>7975</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>25394</v>
+        <v>25011</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.02135048484949883</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01212007990916315</v>
+        <v>0.01147272777616449</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.03653100668654108</v>
+        <v>0.03597976568048129</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>18</v>
@@ -3389,19 +3389,19 @@
         <v>20134</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>12158</v>
+        <v>11982</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>32032</v>
+        <v>32245</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01440553535508895</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.008699078738728407</v>
+        <v>0.008572784496940235</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.02291895394215988</v>
+        <v>0.02307084282227631</v>
       </c>
     </row>
     <row r="8">
@@ -3418,19 +3418,19 @@
         <v>4547</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1725</v>
+        <v>1596</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>10936</v>
+        <v>10617</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.006472859946616911</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.002456140279143013</v>
+        <v>0.002271397289854117</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.01556659543795254</v>
+        <v>0.01511279592805292</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>4</v>
@@ -3439,19 +3439,19 @@
         <v>3975</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>991</v>
+        <v>1046</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>9784</v>
+        <v>10220</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.005718359767331705</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.001425007266993752</v>
+        <v>0.001504598178226048</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.0140750735776823</v>
+        <v>0.01470285339560592</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>9</v>
@@ -3460,19 +3460,19 @@
         <v>8522</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3882</v>
+        <v>3988</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>15567</v>
+        <v>15271</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.006097598276831793</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.002777237389387226</v>
+        <v>0.002853701851997637</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.01113791045098944</v>
+        <v>0.01092606407248811</v>
       </c>
     </row>
     <row r="9">
@@ -3564,19 +3564,19 @@
         <v>715476</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>684556</v>
+        <v>684609</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>745447</v>
+        <v>743352</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.7049687567919988</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.6745025121906324</v>
+        <v>0.6745543636602506</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.7344996452558672</v>
+        <v>0.732435132324149</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>618</v>
@@ -3585,19 +3585,19 @@
         <v>673868</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>639443</v>
+        <v>642648</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>703720</v>
+        <v>704815</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.6536091175490896</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.6202189884974478</v>
+        <v>0.6233270752813136</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.6825632410819092</v>
+        <v>0.6836255207661273</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1279</v>
@@ -3606,19 +3606,19 @@
         <v>1389345</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1343923</v>
+        <v>1344871</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1432077</v>
+        <v>1430920</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.6790869595505468</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.6568857050233723</v>
+        <v>0.6573488681281964</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.699973526265439</v>
+        <v>0.6994081699070521</v>
       </c>
     </row>
     <row r="11">
@@ -3635,19 +3635,19 @@
         <v>223933</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>196895</v>
+        <v>198857</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>252584</v>
+        <v>254506</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2206441748680366</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1940032714110642</v>
+        <v>0.1959361356967043</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2488741065502015</v>
+        <v>0.2507682792320901</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>237</v>
@@ -3656,19 +3656,19 @@
         <v>261044</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>235580</v>
+        <v>233812</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>290440</v>
+        <v>292149</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2531957229224364</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2284973880956609</v>
+        <v>0.2267826657190729</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2817078174935822</v>
+        <v>0.2833655383778977</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>440</v>
@@ -3677,19 +3677,19 @@
         <v>484977</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>447533</v>
+        <v>446377</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>527535</v>
+        <v>524309</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2370479615584906</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2187460522602037</v>
+        <v>0.2181813179622777</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2578498795812122</v>
+        <v>0.2562729981413263</v>
       </c>
     </row>
     <row r="12">
@@ -3706,19 +3706,19 @@
         <v>55331</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>41293</v>
+        <v>40605</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>73164</v>
+        <v>70655</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.05451870543063077</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.04068628040431389</v>
+        <v>0.04000843473925593</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.07208983670500919</v>
+        <v>0.06961741098223029</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>64</v>
@@ -3727,19 +3727,19 @@
         <v>72092</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>56801</v>
+        <v>55163</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>91127</v>
+        <v>89646</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.06992481375213293</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.05509288752795172</v>
+        <v>0.05350498342221102</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.08838775089984763</v>
+        <v>0.08695066959421019</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>114</v>
@@ -3748,19 +3748,19 @@
         <v>127424</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>106477</v>
+        <v>106340</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>151597</v>
+        <v>151062</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.0622823458637558</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.05204393041023914</v>
+        <v>0.0519772083190498</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.07409802055609738</v>
+        <v>0.07383655806810113</v>
       </c>
     </row>
     <row r="13">
@@ -3777,19 +3777,19 @@
         <v>18203</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>10893</v>
+        <v>10595</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>27320</v>
+        <v>29055</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01793597524852094</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01073343956016207</v>
+        <v>0.01043949252234334</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.02691881286427781</v>
+        <v>0.02862780292858637</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>15</v>
@@ -3798,19 +3798,19 @@
         <v>17772</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>9526</v>
+        <v>10344</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>28300</v>
+        <v>29253</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01723788518267589</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.009239975471899598</v>
+        <v>0.0100330465956155</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.02744949436580869</v>
+        <v>0.02837333592584487</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>32</v>
@@ -3819,19 +3819,19 @@
         <v>35976</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>24584</v>
+        <v>25029</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>51539</v>
+        <v>49323</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01758418489705409</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.012016183749285</v>
+        <v>0.01223391665881556</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.02519154938943189</v>
+        <v>0.02410835128089328</v>
       </c>
     </row>
     <row r="14">
@@ -3851,7 +3851,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>6841</v>
+        <v>6824</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.00193238766081289</v>
@@ -3860,7 +3860,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.00674084715993919</v>
+        <v>0.006723605429382817</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>5</v>
@@ -3869,19 +3869,19 @@
         <v>6219</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>2157</v>
+        <v>2125</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>15431</v>
+        <v>14804</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.006032460593665241</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.002092433418203679</v>
+        <v>0.002061002203628198</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.0149673604026764</v>
+        <v>0.01435853579564776</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>7</v>
@@ -3890,19 +3890,19 @@
         <v>8181</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>3207</v>
+        <v>3137</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>16757</v>
+        <v>16850</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.003998548130152647</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.001567428024839527</v>
+        <v>0.001533549453725174</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.008190462207650198</v>
+        <v>0.008236207001491511</v>
       </c>
     </row>
     <row r="15">
@@ -3994,19 +3994,19 @@
         <v>574960</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>549554</v>
+        <v>549744</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>600175</v>
+        <v>600283</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.7623272554727687</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.7286412795076936</v>
+        <v>0.7288934657710351</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.7957594840851959</v>
+        <v>0.7959016787889115</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>491</v>
@@ -4015,19 +4015,19 @@
         <v>541278</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>512577</v>
+        <v>515453</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>566119</v>
+        <v>567106</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.6964701050842282</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.6595400880615827</v>
+        <v>0.6632397768705824</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.7284326310245908</v>
+        <v>0.729703057956306</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1019</v>
@@ -4036,19 +4036,19 @@
         <v>1116239</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1078190</v>
+        <v>1079113</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1153467</v>
+        <v>1153695</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.7289050448919109</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.7040595349277545</v>
+        <v>0.7046621899833678</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.7532154683458148</v>
+        <v>0.7533642619881233</v>
       </c>
     </row>
     <row r="17">
@@ -4065,19 +4065,19 @@
         <v>111178</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>91710</v>
+        <v>91301</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>132858</v>
+        <v>132372</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1474089236007548</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1215963872828515</v>
+        <v>0.1210534062186506</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1761530069306932</v>
+        <v>0.1755093686759419</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>128</v>
@@ -4086,19 +4086,19 @@
         <v>139887</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>118316</v>
+        <v>120021</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>163043</v>
+        <v>163001</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1799941476054738</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1522386924135934</v>
+        <v>0.1544329120547269</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2097894227314037</v>
+        <v>0.2097349385126878</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>228</v>
@@ -4107,19 +4107,19 @@
         <v>251065</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>222487</v>
+        <v>221624</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>283838</v>
+        <v>280607</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1639457796913221</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1452841648309415</v>
+        <v>0.1447209197633165</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1853466029810534</v>
+        <v>0.1832365337782103</v>
       </c>
     </row>
     <row r="18">
@@ -4136,19 +4136,19 @@
         <v>55448</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>40711</v>
+        <v>41050</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>75164</v>
+        <v>71639</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.07351767045705621</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.05397757914063565</v>
+        <v>0.05442711801242542</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.0996579244499099</v>
+        <v>0.09498512898811401</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>57</v>
@@ -4157,19 +4157,19 @@
         <v>65091</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>50688</v>
+        <v>49119</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>82726</v>
+        <v>82352</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.08375293072665593</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.06522031957962582</v>
+        <v>0.06320182418778043</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1064446204217511</v>
+        <v>0.1059635201575823</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>103</v>
@@ -4178,19 +4178,19 @@
         <v>120539</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>99751</v>
+        <v>97905</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>144126</v>
+        <v>142355</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.07871201946946009</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.06513724572947628</v>
+        <v>0.0639323065097048</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.09411413774081429</v>
+        <v>0.09295776587346589</v>
       </c>
     </row>
     <row r="19">
@@ -4207,19 +4207,19 @@
         <v>8495</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>4040</v>
+        <v>4079</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>16201</v>
+        <v>16317</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.01126283676569742</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.005356152115272825</v>
+        <v>0.005408335773382771</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.02148020141827936</v>
+        <v>0.02163427917601659</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>24</v>
@@ -4228,19 +4228,19 @@
         <v>25893</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>17498</v>
+        <v>17604</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>36997</v>
+        <v>38515</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.03331639444013295</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.02251480681224068</v>
+        <v>0.02265097822280016</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.04760440648900352</v>
+        <v>0.04955735191765753</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>32</v>
@@ -4249,19 +4249,19 @@
         <v>34387</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>23485</v>
+        <v>23778</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>48106</v>
+        <v>47941</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.02245491908786747</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.01533549533318159</v>
+        <v>0.01552720963856188</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.03141353857545582</v>
+        <v>0.03130566577294733</v>
       </c>
     </row>
     <row r="20">
@@ -4278,19 +4278,19 @@
         <v>4136</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>990</v>
+        <v>1045</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>11030</v>
+        <v>10152</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.005483313703722886</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.001312851218628591</v>
+        <v>0.001385375516129518</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.0146249220331042</v>
+        <v>0.01345988858543085</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>5</v>
@@ -4299,19 +4299,19 @@
         <v>5026</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1368</v>
+        <v>1883</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>11363</v>
+        <v>11136</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.006466422143509104</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.001760113198531082</v>
+        <v>0.002423282554465024</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.01462120130526364</v>
+        <v>0.01432838688990544</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>9</v>
@@ -4320,19 +4320,19 @@
         <v>9161</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>4294</v>
+        <v>4173</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>16846</v>
+        <v>16529</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.005982236859439489</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.002804240511979614</v>
+        <v>0.002725204920589911</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.01100061396126112</v>
+        <v>0.01079373779058924</v>
       </c>
     </row>
     <row r="21">
@@ -4424,19 +4424,19 @@
         <v>651299</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>619844</v>
+        <v>621874</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>680294</v>
+        <v>678285</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.6879144399529286</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.6546907735474735</v>
+        <v>0.6568350637609187</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.7185393508048239</v>
+        <v>0.7164177808537814</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>643</v>
@@ -4445,19 +4445,19 @@
         <v>673170</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>640216</v>
+        <v>642488</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>703044</v>
+        <v>703248</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.6419030449686911</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.6104802161080856</v>
+        <v>0.6126462627082935</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.6703903406113805</v>
+        <v>0.6705847886548801</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1276</v>
@@ -4466,19 +4466,19 @@
         <v>1324469</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1277482</v>
+        <v>1281791</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1365712</v>
+        <v>1369323</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.6637335338368466</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.6401866372925116</v>
+        <v>0.6423463574612809</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.6844019291934702</v>
+        <v>0.6862114356779483</v>
       </c>
     </row>
     <row r="23">
@@ -4495,19 +4495,19 @@
         <v>211223</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>183671</v>
+        <v>185057</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>240260</v>
+        <v>236962</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.2230973820587507</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1939965022649798</v>
+        <v>0.195461013005883</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2537674057405402</v>
+        <v>0.2502839677644644</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>252</v>
@@ -4516,19 +4516,19 @@
         <v>263627</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>234539</v>
+        <v>236413</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>291761</v>
+        <v>293313</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.2513821628825574</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.2236456938576577</v>
+        <v>0.225432078573272</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2782093674470316</v>
+        <v>0.2796898393715191</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>450</v>
@@ -4537,19 +4537,19 @@
         <v>474850</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>440631</v>
+        <v>436621</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>521560</v>
+        <v>514840</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.2379622134738541</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.2208140235260349</v>
+        <v>0.2188047271923386</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2613701942250972</v>
+        <v>0.2580028204561663</v>
       </c>
     </row>
     <row r="24">
@@ -4566,19 +4566,19 @@
         <v>68177</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>54247</v>
+        <v>52617</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>89101</v>
+        <v>86204</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.07201034790604127</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.05729648076047479</v>
+        <v>0.05557536512791676</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.09410997512162653</v>
+        <v>0.0910503770375424</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>72</v>
@@ -4587,19 +4587,19 @@
         <v>76746</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>60720</v>
+        <v>61474</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>93800</v>
+        <v>96319</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.0731817316673158</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.05790011823512096</v>
+        <v>0.05861895194592663</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.08944347321684998</v>
+        <v>0.09184490576924266</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>135</v>
@@ -4608,19 +4608,19 @@
         <v>144924</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>121873</v>
+        <v>120920</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>170402</v>
+        <v>168753</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.07262595890342542</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.06107423383668825</v>
+        <v>0.06059663088396416</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.08539394380610002</v>
+        <v>0.08456725343617381</v>
       </c>
     </row>
     <row r="25">
@@ -4637,19 +4637,19 @@
         <v>10088</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>5029</v>
+        <v>4880</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>17906</v>
+        <v>17453</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.01065494821073712</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.005311634807860313</v>
+        <v>0.005153902424928987</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.01891297218147333</v>
+        <v>0.01843383000661561</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>20</v>
@@ -4658,19 +4658,19 @@
         <v>20248</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>12048</v>
+        <v>13098</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>31134</v>
+        <v>31709</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.01930752257396067</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.01148868796340943</v>
+        <v>0.01248953493751268</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.02968765888780961</v>
+        <v>0.03023667658260632</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>30</v>
@@ -4679,19 +4679,19 @@
         <v>30336</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>21256</v>
+        <v>21577</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>44915</v>
+        <v>42815</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.01520223673374762</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.01065184465691436</v>
+        <v>0.01081304848244086</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.02250827513036974</v>
+        <v>0.02145573900600559</v>
       </c>
     </row>
     <row r="26">
@@ -4708,19 +4708,19 @@
         <v>5986</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>2003</v>
+        <v>1922</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>14604</v>
+        <v>14654</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.00632288187154231</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.002115645407130078</v>
+        <v>0.00203012502531875</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.0154254400815196</v>
+        <v>0.01547733831239647</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>13</v>
@@ -4729,19 +4729,19 @@
         <v>14918</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>8011</v>
+        <v>7972</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>25263</v>
+        <v>24351</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.01422553790747504</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.007638913874090957</v>
+        <v>0.007602008301747111</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.0240898535608227</v>
+        <v>0.0232201715166287</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>18</v>
@@ -4750,19 +4750,19 @@
         <v>20905</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>12565</v>
+        <v>12805</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>32972</v>
+        <v>32933</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.01047605705212621</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.006296600210996491</v>
+        <v>0.006417180923780929</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.01652313971180534</v>
+        <v>0.01650387277752453</v>
       </c>
     </row>
     <row r="27">
@@ -4854,19 +4854,19 @@
         <v>2468122</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>2410342</v>
+        <v>2419237</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>2519536</v>
+        <v>2521810</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.7220113984300092</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.7051087348641754</v>
+        <v>0.7077108019920508</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.7370516823368468</v>
+        <v>0.7377169245085854</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>2207</v>
@@ -4875,19 +4875,19 @@
         <v>2375558</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>2314461</v>
+        <v>2314417</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>2432163</v>
+        <v>2431332</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.6687914543306411</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.6515909321766643</v>
+        <v>0.6515784673202821</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.6847273634153068</v>
+        <v>0.6844935392125372</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>4537</v>
@@ -4896,19 +4896,19 @@
         <v>4843681</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>4763660</v>
+        <v>4757823</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>4924010</v>
+        <v>4917763</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.6948913318664801</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.6834112021873976</v>
+        <v>0.682573871661876</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.7064156220473142</v>
+        <v>0.7055194662105281</v>
       </c>
     </row>
     <row r="29">
@@ -4925,19 +4925,19 @@
         <v>679198</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>633979</v>
+        <v>631056</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>725635</v>
+        <v>726704</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1986889750224568</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.185460865369838</v>
+        <v>0.1846058225841065</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2122733472026413</v>
+        <v>0.2125861242647519</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>772</v>
@@ -4946,19 +4946,19 @@
         <v>829350</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>777699</v>
+        <v>782103</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>885007</v>
+        <v>880715</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.2334871083575353</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.2189457905180079</v>
+        <v>0.2201855972644735</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.2491562484082986</v>
+        <v>0.2479478282949472</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>1394</v>
@@ -4967,19 +4967,19 @@
         <v>1508548</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>1440967</v>
+        <v>1441221</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>1578063</v>
+        <v>1579991</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.2164215696033875</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.2067260933603652</v>
+        <v>0.2067626439289543</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2263944167523499</v>
+        <v>0.2266710514327372</v>
       </c>
     </row>
     <row r="30">
@@ -4996,19 +4996,19 @@
         <v>212369</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>182512</v>
+        <v>185087</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>242352</v>
+        <v>243659</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.06212540367532542</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.05339117056288127</v>
+        <v>0.05414444052083957</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.07089642517107914</v>
+        <v>0.07127861005970063</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>215</v>
@@ -5017,19 +5017,19 @@
         <v>238215</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>206512</v>
+        <v>208406</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>272803</v>
+        <v>270112</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.06706482343672784</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.05813936974620752</v>
+        <v>0.05867267523493846</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.07680228974822849</v>
+        <v>0.07604467887041418</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>408</v>
@@ -5038,19 +5038,19 @@
         <v>450585</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>410448</v>
+        <v>405882</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>492413</v>
+        <v>492941</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.06464245616347403</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.05888434008960539</v>
+        <v>0.05822918843763681</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.07064324468928458</v>
+        <v>0.07071901050699907</v>
       </c>
     </row>
     <row r="31">
@@ -5067,19 +5067,19 @@
         <v>42078</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>30713</v>
+        <v>30493</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>56496</v>
+        <v>55180</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.01230927198889704</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.008984508847656187</v>
+        <v>0.008920169930427078</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.01652705249866255</v>
+        <v>0.01614206386198926</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>72</v>
@@ -5088,19 +5088,19 @@
         <v>78754</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>62286</v>
+        <v>62172</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>98995</v>
+        <v>97696</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.0221717216102615</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.01753539762784983</v>
+        <v>0.01750328107348989</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.027870023845058</v>
+        <v>0.0275043626491441</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>112</v>
@@ -5109,19 +5109,19 @@
         <v>120832</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>100693</v>
+        <v>99701</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>147866</v>
+        <v>145635</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.01733502492301244</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.01444571147684991</v>
+        <v>0.01430340812359039</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.0212134114152262</v>
+        <v>0.02089326638225841</v>
       </c>
     </row>
     <row r="32">
@@ -5138,19 +5138,19 @@
         <v>16630</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>9645</v>
+        <v>9936</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>26527</v>
+        <v>27643</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.004864950883311575</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.002821612571761986</v>
+        <v>0.002906496572722888</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.007759979227480625</v>
+        <v>0.008086662877358711</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>27</v>
@@ -5159,19 +5159,19 @@
         <v>30138</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>20454</v>
+        <v>19801</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>43858</v>
+        <v>43128</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.008484892264834166</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.005758370912266914</v>
+        <v>0.005574522039442052</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.01234729073905182</v>
+        <v>0.01214190553242723</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>43</v>
@@ -5180,19 +5180,19 @@
         <v>46769</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>33983</v>
+        <v>34185</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>62456</v>
+        <v>62717</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.006709617443645895</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.004875283353358812</v>
+        <v>0.004904349037398209</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.008960158910848356</v>
+        <v>0.008997635382151817</v>
       </c>
     </row>
     <row r="33">
@@ -5524,19 +5524,19 @@
         <v>397723</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>369636</v>
+        <v>370968</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>424057</v>
+        <v>421527</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.5903191049322588</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.5486308339661564</v>
+        <v>0.5506083668712146</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.6294049583259722</v>
+        <v>0.625650012188077</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>358</v>
@@ -5545,19 +5545,19 @@
         <v>361275</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>334217</v>
+        <v>335630</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>387865</v>
+        <v>387292</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.5385254599531443</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.4981923359915353</v>
+        <v>0.5002995457029316</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.578161324233771</v>
+        <v>0.5773071550395069</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>739</v>
@@ -5566,19 +5566,19 @@
         <v>758997</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>722295</v>
+        <v>722848</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>795026</v>
+        <v>793857</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.5644777987485771</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.5371814801114329</v>
+        <v>0.5375930938678085</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5912725912476441</v>
+        <v>0.5904032510885526</v>
       </c>
     </row>
     <row r="5">
@@ -5595,19 +5595,19 @@
         <v>214988</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>189881</v>
+        <v>191600</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>238298</v>
+        <v>239325</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.3190960111846484</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2818300595566379</v>
+        <v>0.2843812205003703</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3536938158522946</v>
+        <v>0.3552173196123574</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>220</v>
@@ -5616,19 +5616,19 @@
         <v>222067</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>199298</v>
+        <v>197537</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>247800</v>
+        <v>245292</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3310183781091301</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2970792025873516</v>
+        <v>0.2944541034941142</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3693770645591805</v>
+        <v>0.3656388096383119</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>431</v>
@@ -5637,19 +5637,19 @@
         <v>437055</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>405699</v>
+        <v>405103</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>471973</v>
+        <v>471733</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.3250444153615308</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.3017241022300942</v>
+        <v>0.3012814315146762</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.351013457082329</v>
+        <v>0.3508347414193893</v>
       </c>
     </row>
     <row r="6">
@@ -5666,19 +5666,19 @@
         <v>47962</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>35443</v>
+        <v>35718</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>63023</v>
+        <v>62109</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.07118729117507999</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.0526060414487511</v>
+        <v>0.05301382585633824</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.09354202318070792</v>
+        <v>0.09218458528497729</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>66</v>
@@ -5687,19 +5687,19 @@
         <v>66847</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>53239</v>
+        <v>52961</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>85208</v>
+        <v>83462</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.09964327718399997</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.07935959918125909</v>
+        <v>0.07894540699073811</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1270139613840721</v>
+        <v>0.1244106042324528</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>113</v>
@@ -5708,19 +5708,19 @@
         <v>114808</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>96566</v>
+        <v>95064</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>136948</v>
+        <v>134497</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.0853847829235674</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.07181735201333934</v>
+        <v>0.07070071089268395</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1018502643184338</v>
+        <v>0.1000271854365762</v>
       </c>
     </row>
     <row r="7">
@@ -5737,19 +5737,19 @@
         <v>12050</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>6141</v>
+        <v>6101</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>20048</v>
+        <v>21614</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01788586363083533</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.00911442361911295</v>
+        <v>0.009055808617640783</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.02975585822053413</v>
+        <v>0.03208104712139592</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>12</v>
@@ -5758,19 +5758,19 @@
         <v>12491</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>6952</v>
+        <v>6197</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>21249</v>
+        <v>20775</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01861911009313255</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01036213534718848</v>
+        <v>0.009237458969977668</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.03167460348852563</v>
+        <v>0.0309680778094634</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>23</v>
@@ -5779,19 +5779,19 @@
         <v>24541</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>16170</v>
+        <v>15225</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>35853</v>
+        <v>36061</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01825170091353603</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01202571953419207</v>
+        <v>0.01132274568243595</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.02666419477285234</v>
+        <v>0.0268189418130785</v>
       </c>
     </row>
     <row r="8">
@@ -5811,7 +5811,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>5133</v>
+        <v>5442</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.001511729077177544</v>
@@ -5820,7 +5820,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.007618915811948993</v>
+        <v>0.008077375765568889</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>8</v>
@@ -5829,19 +5829,19 @@
         <v>8180</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>3711</v>
+        <v>3973</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>15347</v>
+        <v>15947</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.01219377466059308</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.005531377667304038</v>
+        <v>0.005921617328052499</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.0228759851645899</v>
+        <v>0.02377109436403595</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>9</v>
@@ -5850,19 +5850,19 @@
         <v>9199</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>4051</v>
+        <v>4266</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>16310</v>
+        <v>16450</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.006841302052788678</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.003012657453241583</v>
+        <v>0.003172713005225172</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.01213009345657481</v>
+        <v>0.0122341789227903</v>
       </c>
     </row>
     <row r="9">
@@ -5954,19 +5954,19 @@
         <v>595667</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>563054</v>
+        <v>564711</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>631094</v>
+        <v>628984</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.5825985476483001</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.5507010368299642</v>
+        <v>0.5523222653245904</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.617248646960572</v>
+        <v>0.6151850473950652</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>556</v>
@@ -5975,19 +5975,19 @@
         <v>589863</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>557536</v>
+        <v>556466</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>619374</v>
+        <v>623733</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.5660712987281148</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.5350480617111921</v>
+        <v>0.5340219457080877</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.5943927219102841</v>
+        <v>0.5985757620360974</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1111</v>
@@ -5996,19 +5996,19 @@
         <v>1185530</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1141853</v>
+        <v>1137339</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1233197</v>
+        <v>1229203</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.5742564778712224</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.5530998548802709</v>
+        <v>0.5509136636696862</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.597345829024363</v>
+        <v>0.5954111862476885</v>
       </c>
     </row>
     <row r="11">
@@ -6025,19 +6025,19 @@
         <v>328434</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>296395</v>
+        <v>296417</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>361642</v>
+        <v>358270</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.3212288539634928</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2898921936436922</v>
+        <v>0.2899139684761079</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3537081615269626</v>
+        <v>0.3504099874394695</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>322</v>
@@ -6046,19 +6046,19 @@
         <v>346384</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>315301</v>
+        <v>312266</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>375999</v>
+        <v>377757</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.3324128388227282</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.3025837876494176</v>
+        <v>0.2996707032664442</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3608336958060057</v>
+        <v>0.3625208964350784</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>627</v>
@@ -6067,19 +6067,19 @@
         <v>674818</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>629549</v>
+        <v>632707</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>716591</v>
+        <v>718791</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.3268739303178263</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.3049462567124757</v>
+        <v>0.3064756527809734</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3471079857070262</v>
+        <v>0.3481739977071694</v>
       </c>
     </row>
     <row r="12">
@@ -6096,19 +6096,19 @@
         <v>81023</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>65038</v>
+        <v>65213</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>99537</v>
+        <v>100047</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.07924521998382743</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.06361126728883829</v>
+        <v>0.06378263796410656</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.09735295179083051</v>
+        <v>0.09785185929696195</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>76</v>
@@ -6117,19 +6117,19 @@
         <v>82589</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>65112</v>
+        <v>64782</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>101117</v>
+        <v>101998</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.0792575015931799</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.06248573791449838</v>
+        <v>0.06216863724566542</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.09703860875952529</v>
+        <v>0.09788437253315571</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>151</v>
@@ -6138,19 +6138,19 @@
         <v>163611</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>138426</v>
+        <v>140839</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>189282</v>
+        <v>191658</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.07925141908221869</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.06705199369556211</v>
+        <v>0.06822056615552577</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.0916860898577655</v>
+        <v>0.09283668810416819</v>
       </c>
     </row>
     <row r="13">
@@ -6167,19 +6167,19 @@
         <v>13340</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>7495</v>
+        <v>7309</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>23538</v>
+        <v>22413</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01304775088401717</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.007331019680269325</v>
+        <v>0.007148248724866394</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.02302174917985434</v>
+        <v>0.02192082300015552</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>17</v>
@@ -6188,19 +6188,19 @@
         <v>18308</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>11200</v>
+        <v>10914</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>28911</v>
+        <v>28545</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.017569238370362</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01074796546459158</v>
+        <v>0.01047384173900565</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.0277446978709852</v>
+        <v>0.02739326661934425</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>29</v>
@@ -6209,19 +6209,19 @@
         <v>31648</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>21513</v>
+        <v>21889</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>45948</v>
+        <v>44676</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01532995552009581</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01042053161199382</v>
+        <v>0.01060289681634331</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.02225660879046215</v>
+        <v>0.0216406326024573</v>
       </c>
     </row>
     <row r="14">
@@ -6238,19 +6238,19 @@
         <v>3967</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>9686</v>
+        <v>9447</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.003879627520362548</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.0009549465309165445</v>
+        <v>0.000955908530361179</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.009473931503543483</v>
+        <v>0.009240224157140037</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>5</v>
@@ -6259,19 +6259,19 @@
         <v>4886</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1921</v>
+        <v>1879</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>10992</v>
+        <v>12585</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.004689122485615153</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.001843686818259</v>
+        <v>0.001803001218787825</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.01054844919459568</v>
+        <v>0.01207709151139938</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>9</v>
@@ -6280,19 +6280,19 @@
         <v>8853</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>4602</v>
+        <v>4590</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>16776</v>
+        <v>15956</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.004288217208636854</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.002229272760371974</v>
+        <v>0.002223447330401691</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.0081259290589768</v>
+        <v>0.007728819500934094</v>
       </c>
     </row>
     <row r="15">
@@ -6384,19 +6384,19 @@
         <v>360937</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>331412</v>
+        <v>332643</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>390669</v>
+        <v>387516</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.4758526311788563</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.4369270901536115</v>
+        <v>0.4385500826344885</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.5150506573528382</v>
+        <v>0.5108934348118553</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>306</v>
@@ -6405,19 +6405,19 @@
         <v>319534</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>292148</v>
+        <v>291585</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>345892</v>
+        <v>345828</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.4089952049267426</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3739418318344689</v>
+        <v>0.3732206554023385</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.4427332147615975</v>
+        <v>0.4426505051165971</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>636</v>
@@ -6426,19 +6426,19 @@
         <v>680471</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>640810</v>
+        <v>638943</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>718768</v>
+        <v>721747</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.441929782526962</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.4161722023908132</v>
+        <v>0.4149596122943626</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.4668016018301788</v>
+        <v>0.468736009971683</v>
       </c>
     </row>
     <row r="17">
@@ -6455,19 +6455,19 @@
         <v>304713</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>275667</v>
+        <v>276943</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>332471</v>
+        <v>333948</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.4017281381239271</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.3634346584850712</v>
+        <v>0.3651169291242232</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.4383236640756359</v>
+        <v>0.4402702516152822</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>311</v>
@@ -6476,19 +6476,19 @@
         <v>333520</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>305597</v>
+        <v>307308</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>360276</v>
+        <v>362147</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.4268972772238697</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.3911564926541232</v>
+        <v>0.3933462019376158</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.4611437115612801</v>
+        <v>0.4635387097059407</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>591</v>
@@ -6497,19 +6497,19 @@
         <v>638234</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>601389</v>
+        <v>600518</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>677078</v>
+        <v>680547</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.4144987298778811</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.3905703067714597</v>
+        <v>0.3900046739514673</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.4397262987711036</v>
+        <v>0.4419787779070997</v>
       </c>
     </row>
     <row r="18">
@@ -6526,19 +6526,19 @@
         <v>89922</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>71183</v>
+        <v>73777</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>109954</v>
+        <v>109802</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.118552081196211</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.09384648697840151</v>
+        <v>0.09726584249496117</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1449614203695579</v>
+        <v>0.1447612047766244</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>100</v>
@@ -6547,19 +6547,19 @@
         <v>110130</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>89977</v>
+        <v>90180</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>129551</v>
+        <v>132150</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1409641157805982</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1151682535173284</v>
+        <v>0.1154285447686128</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1658224170550227</v>
+        <v>0.1691486641121825</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>181</v>
@@ -6568,19 +6568,19 @@
         <v>200053</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>172595</v>
+        <v>174353</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>227628</v>
+        <v>227068</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1299237432509278</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1120914515145321</v>
+        <v>0.11323288494722</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1478320963762722</v>
+        <v>0.1474682663406928</v>
       </c>
     </row>
     <row r="19">
@@ -6600,16 +6600,16 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>6145</v>
+        <v>5786</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.00252025038198001</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>4.790879917997785e-07</v>
+        <v>4.751758314752918e-07</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.008101735727107645</v>
+        <v>0.007628090874959486</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>16</v>
@@ -6618,19 +6618,19 @@
         <v>18081</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>10623</v>
+        <v>10852</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>28123</v>
+        <v>28715</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.02314340206878951</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.01359730326987671</v>
+        <v>0.01389089859126662</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.03599671607202848</v>
+        <v>0.0367539467095126</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>19</v>
@@ -6639,19 +6639,19 @@
         <v>19993</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>12643</v>
+        <v>12489</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>30986</v>
+        <v>31334</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.01298424956074857</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.008210744359132381</v>
+        <v>0.008110688465803661</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.02012369601102781</v>
+        <v>0.02034962943693214</v>
       </c>
     </row>
     <row r="20">
@@ -6671,7 +6671,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>5663</v>
+        <v>5119</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.001346899119025613</v>
@@ -6680,7 +6680,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.007466454121340419</v>
+        <v>0.006749237433713096</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>0</v>
@@ -6705,7 +6705,7 @@
         <v>0</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>5124</v>
+        <v>4642</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.0006634947834805974</v>
@@ -6714,7 +6714,7 @@
         <v>0</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.003327929272581237</v>
+        <v>0.003014835756311109</v>
       </c>
     </row>
     <row r="21">
@@ -6806,19 +6806,19 @@
         <v>582423</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>553763</v>
+        <v>552457</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>612062</v>
+        <v>609606</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.6227088860982199</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.5920664757558673</v>
+        <v>0.5906703854048594</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.6543986975450469</v>
+        <v>0.6517727013877139</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>563</v>
@@ -6827,19 +6827,19 @@
         <v>608945</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>574847</v>
+        <v>574802</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>641389</v>
+        <v>641530</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.5834043773872639</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.550736418580217</v>
+        <v>0.5506934540166409</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.6144875537844673</v>
+        <v>0.6146224116285814</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1136</v>
@@ -6848,19 +6848,19 @@
         <v>1191368</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1147927</v>
+        <v>1145502</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1236987</v>
+        <v>1233700</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.601979487313628</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.5800294110668985</v>
+        <v>0.5788039563603443</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.6250302652268039</v>
+        <v>0.6233691933909736</v>
       </c>
     </row>
     <row r="23">
@@ -6877,19 +6877,19 @@
         <v>250307</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>223524</v>
+        <v>223458</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>274724</v>
+        <v>277725</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.2676210722808361</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.2389854589431547</v>
+        <v>0.2389142786724704</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2937267346084229</v>
+        <v>0.2969348085287236</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>259</v>
@@ -6898,19 +6898,19 @@
         <v>281122</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>251715</v>
+        <v>252578</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>310756</v>
+        <v>310838</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.2693309354206113</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.2411569062254532</v>
+        <v>0.2419842427968192</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2977217245014744</v>
+        <v>0.2978008349420415</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>514</v>
@@ -6919,19 +6919,19 @@
         <v>531429</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>491045</v>
+        <v>492882</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>572993</v>
+        <v>577076</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.2685228628400855</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.2481172957855758</v>
+        <v>0.2490456237924421</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2895243098652754</v>
+        <v>0.2915872338417814</v>
       </c>
     </row>
     <row r="24">
@@ -6948,19 +6948,19 @@
         <v>72098</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>57015</v>
+        <v>57809</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>88843</v>
+        <v>89971</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.07708502458116578</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.06095850784492973</v>
+        <v>0.06180766491092279</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.0949884887034856</v>
+        <v>0.09619380125951761</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>98</v>
@@ -6969,19 +6969,19 @@
         <v>109905</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>90318</v>
+        <v>90106</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>132658</v>
+        <v>131730</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1052951149145203</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.08652975281843282</v>
+        <v>0.08632664180986338</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.127094199128283</v>
+        <v>0.126205288566817</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>171</v>
@@ -6990,19 +6990,19 @@
         <v>182003</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>156499</v>
+        <v>158150</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>210426</v>
+        <v>207122</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.09196317040840167</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.07907655113964361</v>
+        <v>0.07991065630406261</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1063249436944062</v>
+        <v>0.1046554957658106</v>
       </c>
     </row>
     <row r="25">
@@ -7019,19 +7019,19 @@
         <v>18029</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>10999</v>
+        <v>11504</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>27910</v>
+        <v>30256</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.0192764709429249</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.01175983133230473</v>
+        <v>0.01229923581369799</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.02984042942115571</v>
+        <v>0.0323483876682809</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>29</v>
@@ -7040,19 +7040,19 @@
         <v>32580</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>21426</v>
+        <v>22591</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>45247</v>
+        <v>48379</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.03121347023324758</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.02052776504861662</v>
+        <v>0.02164372512704293</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.04334934126811028</v>
+        <v>0.0463502357986453</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>46</v>
@@ -7061,19 +7061,19 @@
         <v>50609</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>36739</v>
+        <v>38718</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>66632</v>
+        <v>68915</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.02557210538019021</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.01856356022468474</v>
+        <v>0.01956379708295091</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.03366802331769677</v>
+        <v>0.03482173450509044</v>
       </c>
     </row>
     <row r="26">
@@ -7090,19 +7090,19 @@
         <v>12448</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>7097</v>
+        <v>6560</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>20981</v>
+        <v>20766</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.01330854609685327</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.007588328545383907</v>
+        <v>0.007013819219438596</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.02243255872183787</v>
+        <v>0.02220260058656913</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>10</v>
@@ -7111,19 +7111,19 @@
         <v>11227</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>5760</v>
+        <v>5616</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>20211</v>
+        <v>20933</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.01075610204435686</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.005518104062689095</v>
+        <v>0.005380911189502125</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.01936323656140102</v>
+        <v>0.02005510437328597</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>22</v>
@@ -7132,19 +7132,19 @@
         <v>23675</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>15234</v>
+        <v>15082</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>35656</v>
+        <v>34809</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.01196237405769459</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.007697508479008995</v>
+        <v>0.007620857960490964</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.01801651381360402</v>
+        <v>0.01758830039748225</v>
       </c>
     </row>
     <row r="27">
@@ -7236,19 +7236,19 @@
         <v>1936749</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>1882475</v>
+        <v>1874697</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>1995975</v>
+        <v>1997435</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.5713152064316969</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.5553052714363863</v>
+        <v>0.5530108757463826</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.5887862390502248</v>
+        <v>0.5892168418652196</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>1783</v>
@@ -7257,19 +7257,19 @@
         <v>1879617</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>1816711</v>
+        <v>1817958</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>1939391</v>
+        <v>1936847</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.5312753487639018</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.5134951270240177</v>
+        <v>0.5138474485670455</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.5481706155149166</v>
+        <v>0.5474516704091967</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>3622</v>
@@ -7278,19 +7278,19 @@
         <v>3816365</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>3727126</v>
+        <v>3732499</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>3900031</v>
+        <v>3904302</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.5508677403206631</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.5379865905882882</v>
+        <v>0.5387620965621988</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.5629442606887888</v>
+        <v>0.5635608382894078</v>
       </c>
     </row>
     <row r="29">
@@ -7307,19 +7307,19 @@
         <v>1098443</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1043876</v>
+        <v>1043379</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>1153133</v>
+        <v>1156164</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.3240260845033918</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.3079296559406255</v>
+        <v>0.3077830092251789</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.3401588969812131</v>
+        <v>0.3410529602279124</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>1112</v>
@@ -7328,19 +7328,19 @@
         <v>1183093</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>1125670</v>
+        <v>1121901</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>1239759</v>
+        <v>1235735</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.334402266122913</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.3181715604734379</v>
+        <v>0.3171063364277271</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.3504189633311216</v>
+        <v>0.3492816038708039</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>2163</v>
@@ -7349,19 +7349,19 @@
         <v>2281536</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>2203727</v>
+        <v>2204096</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>2363867</v>
+        <v>2363665</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.3293249700236004</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.3180938077887432</v>
+        <v>0.3181470300500882</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.341208995723957</v>
+        <v>0.3411797605306261</v>
       </c>
     </row>
     <row r="30">
@@ -7378,19 +7378,19 @@
         <v>291005</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>262363</v>
+        <v>256387</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>327869</v>
+        <v>324562</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.0858426211239114</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.07739366017334477</v>
+        <v>0.07563082218371486</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.09671700317813496</v>
+        <v>0.09574134957828749</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>340</v>
@@ -7399,19 +7399,19 @@
         <v>369471</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>333055</v>
+        <v>331639</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>409449</v>
+        <v>407680</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1044311829215245</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.09413817299011862</v>
+        <v>0.09373813371201005</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1157312325794431</v>
+        <v>0.1152309897552349</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>616</v>
@@ -7420,19 +7420,19 @@
         <v>660476</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>611259</v>
+        <v>612227</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>714710</v>
+        <v>709156</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.09533538682160932</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.08823135675549729</v>
+        <v>0.0883710699794561</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1031637974139636</v>
+        <v>0.1023620307552222</v>
       </c>
     </row>
     <row r="31">
@@ -7449,19 +7449,19 @@
         <v>45332</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>32510</v>
+        <v>33012</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>61284</v>
+        <v>60420</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.01337230117067646</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.009589980868804339</v>
+        <v>0.009738000626968359</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.01807784754044005</v>
+        <v>0.01782295318058839</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>74</v>
@@ -7470,19 +7470,19 @@
         <v>81460</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>64029</v>
+        <v>65011</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>100773</v>
+        <v>101178</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.02302462299631134</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.01809788083166935</v>
+        <v>0.01837535193456236</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.02848355696747124</v>
+        <v>0.02859816531798516</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>117</v>
@@ -7491,19 +7491,19 @@
         <v>126791</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>104808</v>
+        <v>104192</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>149570</v>
+        <v>152332</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.01830152756953068</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.01512838588652781</v>
+        <v>0.0150394155411035</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.0215894352171581</v>
+        <v>0.02198814439847833</v>
       </c>
     </row>
     <row r="32">
@@ -7520,19 +7520,19 @@
         <v>18454</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>11166</v>
+        <v>10869</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>27576</v>
+        <v>28533</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.005443786770323493</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.003293915637287658</v>
+        <v>0.003206328233018686</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.008134605443464971</v>
+        <v>0.008416798223897662</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>23</v>
@@ -7541,19 +7541,19 @@
         <v>24293</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>15852</v>
+        <v>15415</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>37036</v>
+        <v>35416</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.006866579195349292</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.004480638809606287</v>
+        <v>0.004357178347766737</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.01046811821880241</v>
+        <v>0.01001033720033332</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>41</v>
@@ -7562,19 +7562,19 @@
         <v>42748</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>31435</v>
+        <v>31355</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>57696</v>
+        <v>57851</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.006170375264596547</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.004537378013934191</v>
+        <v>0.004525858560643834</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.008328043868040425</v>
+        <v>0.008350394722308136</v>
       </c>
     </row>
     <row r="33">
@@ -7906,19 +7906,19 @@
         <v>398586</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>371676</v>
+        <v>371073</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>428500</v>
+        <v>425195</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.5800377690303892</v>
+        <v>0.5800377690303891</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.5408765816383906</v>
+        <v>0.5399996997249351</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.6235694659773965</v>
+        <v>0.6187596909475618</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>636</v>
@@ -7927,19 +7927,19 @@
         <v>404362</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>380499</v>
+        <v>382099</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>427855</v>
+        <v>428194</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.5541906342822688</v>
+        <v>0.5541906342822689</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.5214854365435095</v>
+        <v>0.5236783521881341</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.5863886681081163</v>
+        <v>0.586853304387069</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1028</v>
@@ -7948,19 +7948,19 @@
         <v>802948</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>767574</v>
+        <v>767150</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>837605</v>
+        <v>838858</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.5667268006184265</v>
+        <v>0.5667268006184266</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.541759508142295</v>
+        <v>0.5414604892506041</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5911881044980296</v>
+        <v>0.5920724265167804</v>
       </c>
     </row>
     <row r="5">
@@ -7977,19 +7977,19 @@
         <v>181849</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>157691</v>
+        <v>160181</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>205078</v>
+        <v>206666</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2646334512691749</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2294785504108975</v>
+        <v>0.2331011877120351</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2984365090904119</v>
+        <v>0.3007484609978965</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>390</v>
@@ -7998,19 +7998,19 @@
         <v>216076</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>196245</v>
+        <v>197108</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>236611</v>
+        <v>238209</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2961383565737575</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2689601296003015</v>
+        <v>0.270142552387272</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3242823104904475</v>
+        <v>0.3264728603078643</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>599</v>
@@ -8019,19 +8019,19 @@
         <v>397925</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>368270</v>
+        <v>368104</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>431180</v>
+        <v>428944</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.2808581045399468</v>
+        <v>0.2808581045399469</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2599277998007801</v>
+        <v>0.2598104781941966</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3043297724199782</v>
+        <v>0.3027518937936967</v>
       </c>
     </row>
     <row r="6">
@@ -8048,19 +8048,19 @@
         <v>55512</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>42918</v>
+        <v>43283</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>72496</v>
+        <v>72444</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.08078326638409039</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.0624563422205085</v>
+        <v>0.06298686953381297</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1054981965993321</v>
+        <v>0.1054227911833113</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>115</v>
@@ -8069,19 +8069,19 @@
         <v>58925</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>49185</v>
+        <v>48332</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>70816</v>
+        <v>69762</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>0.08075838498873134</v>
+        <v>0.08075838498873132</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.06740928363905677</v>
+        <v>0.06624007849221987</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.09705491268995207</v>
+        <v>0.09561090457850076</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>177</v>
@@ -8090,19 +8090,19 @@
         <v>114437</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>98367</v>
+        <v>98403</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>133900</v>
+        <v>135428</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.08077045276003118</v>
+        <v>0.0807704527600312</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.06942786914175057</v>
+        <v>0.06945346698816461</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.09450764725147853</v>
+        <v>0.09558574534881827</v>
       </c>
     </row>
     <row r="7">
@@ -8119,19 +8119,19 @@
         <v>31308</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>22117</v>
+        <v>22457</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>43750</v>
+        <v>43383</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.04556122098282612</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.03218535161361492</v>
+        <v>0.0326803055661868</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.06366666114361198</v>
+        <v>0.06313319377798569</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>63</v>
@@ -8140,19 +8140,19 @@
         <v>34285</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>25822</v>
+        <v>25945</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>43816</v>
+        <v>44216</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.04698846874588153</v>
+        <v>0.04698846874588152</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.03539038619116574</v>
+        <v>0.03555879739474417</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.06005125709456593</v>
+        <v>0.06059976259769752</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>101</v>
@@ -8161,19 +8161,19 @@
         <v>65593</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>52877</v>
+        <v>53707</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>81230</v>
+        <v>81879</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.04629623668476796</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.03732075133301108</v>
+        <v>0.03790711867855021</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.05733280611263415</v>
+        <v>0.05779049446236756</v>
       </c>
     </row>
     <row r="8">
@@ -8190,19 +8190,19 @@
         <v>19917</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>13258</v>
+        <v>13408</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>30069</v>
+        <v>30360</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.02898429233351936</v>
+        <v>0.02898429233351935</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.01929370967079775</v>
+        <v>0.01951193861533316</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.04375723957845425</v>
+        <v>0.04418075078867037</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>28</v>
@@ -8211,19 +8211,19 @@
         <v>15997</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>10770</v>
+        <v>10658</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>23131</v>
+        <v>22784</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.02192415540936082</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.01476007121861586</v>
+        <v>0.01460655342030702</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.03170206011720361</v>
+        <v>0.03122586967040714</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>53</v>
@@ -8232,19 +8232,19 @@
         <v>35914</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>26815</v>
+        <v>26419</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>47746</v>
+        <v>46456</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.02534840539682748</v>
+        <v>0.02534840539682749</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.01892599479946065</v>
+        <v>0.01864701934994126</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.03369935560604211</v>
+        <v>0.03278870796499248</v>
       </c>
     </row>
     <row r="9">
@@ -8336,19 +8336,19 @@
         <v>578761</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>541760</v>
+        <v>542269</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>614645</v>
+        <v>614401</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.5524238285629427</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.5171069887978005</v>
+        <v>0.5175932060837126</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.5866750342462692</v>
+        <v>0.5864420926429967</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>730</v>
@@ -8357,19 +8357,19 @@
         <v>549624</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>517394</v>
+        <v>517192</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>577071</v>
+        <v>577421</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.514852707823658</v>
+        <v>0.5148527078236581</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.4846616816094445</v>
+        <v>0.4844720008537711</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.5405627754441044</v>
+        <v>0.5408908418022301</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1225</v>
@@ -8378,19 +8378,19 @@
         <v>1128385</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1080451</v>
+        <v>1082526</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1176730</v>
+        <v>1173513</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.5334618693689039</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.5108002206274048</v>
+        <v>0.5117812764691038</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.556317983551653</v>
+        <v>0.5547967112608251</v>
       </c>
     </row>
     <row r="11">
@@ -8407,19 +8407,19 @@
         <v>350000</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>314709</v>
+        <v>316471</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>384655</v>
+        <v>385271</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.3340735185071302</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.3003876957391995</v>
+        <v>0.3020701250465146</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3671509247747666</v>
+        <v>0.3677385665579276</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>557</v>
@@ -8428,19 +8428,19 @@
         <v>374904</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>348471</v>
+        <v>346737</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>403939</v>
+        <v>404399</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.3511856191380165</v>
+        <v>0.3511856191380166</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.3264254526919936</v>
+        <v>0.3248010554547079</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3783840169913014</v>
+        <v>0.3788148763499475</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>898</v>
@@ -8449,19 +8449,19 @@
         <v>724904</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>682361</v>
+        <v>680470</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>771895</v>
+        <v>763850</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.3427099112338416</v>
+        <v>0.3427099112338415</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.322597031928447</v>
+        <v>0.3217028356739593</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3649256252515192</v>
+        <v>0.3611222553730991</v>
       </c>
     </row>
     <row r="12">
@@ -8478,19 +8478,19 @@
         <v>76735</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>58780</v>
+        <v>59946</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>93872</v>
+        <v>95196</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.07324270236975904</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.05610564506101047</v>
+        <v>0.05721822959712628</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.0896001768792824</v>
+        <v>0.09086449601251054</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>125</v>
@@ -8499,19 +8499,19 @@
         <v>80662</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>67235</v>
+        <v>68208</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>93684</v>
+        <v>94838</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.07555853918242411</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.06298125694389353</v>
+        <v>0.06389265300142112</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.08775722146768994</v>
+        <v>0.08883779716055319</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>202</v>
@@ -8520,19 +8520,19 @@
         <v>157396</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>135231</v>
+        <v>135707</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>181099</v>
+        <v>180170</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.07441149377863207</v>
+        <v>0.07441149377863208</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.06393279728322915</v>
+        <v>0.06415741180878862</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.08561751708401653</v>
+        <v>0.08517821451059031</v>
       </c>
     </row>
     <row r="13">
@@ -8549,19 +8549,19 @@
         <v>26658</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>18448</v>
+        <v>18715</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>38184</v>
+        <v>38104</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02544502659034115</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01760877006718062</v>
+        <v>0.01786366829403473</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03644613112554465</v>
+        <v>0.03636973754870487</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>78</v>
@@ -8570,19 +8570,19 @@
         <v>49693</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>40003</v>
+        <v>39602</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>62622</v>
+        <v>61731</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.04654956962794061</v>
+        <v>0.04654956962794062</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.03747268596523631</v>
+        <v>0.03709648712770963</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.05866069171425589</v>
+        <v>0.05782549973354354</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>110</v>
@@ -8591,19 +8591,19 @@
         <v>76352</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>62864</v>
+        <v>63073</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>93410</v>
+        <v>94745</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.03609638529387221</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02972000980622943</v>
+        <v>0.02981887242410835</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.04416112054596515</v>
+        <v>0.04479211971586999</v>
       </c>
     </row>
     <row r="14">
@@ -8620,19 +8620,19 @@
         <v>15521</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>9706</v>
+        <v>9404</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>25872</v>
+        <v>25551</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.0148149239698268</v>
+        <v>0.01481492396982681</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.009264670263996347</v>
+        <v>0.008976427239372012</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.02469508332360644</v>
+        <v>0.02438859576535068</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>20</v>
@@ -8641,19 +8641,19 @@
         <v>12654</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>8018</v>
+        <v>7837</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>19302</v>
+        <v>19029</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.01185356422796061</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.00751048488384939</v>
+        <v>0.007341039285123082</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.01808065792140046</v>
+        <v>0.01782559111327309</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>37</v>
@@ -8662,19 +8662,19 @@
         <v>28175</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>19115</v>
+        <v>19792</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>39692</v>
+        <v>39027</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.01332034032475013</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.009037016716744716</v>
+        <v>0.009356769276338824</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.01876480487977783</v>
+        <v>0.01845082316748262</v>
       </c>
     </row>
     <row r="15">
@@ -8766,19 +8766,19 @@
         <v>474736</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>443330</v>
+        <v>441260</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>504747</v>
+        <v>501338</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.5921586970522664</v>
+        <v>0.5921586970522665</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.5529845660037582</v>
+        <v>0.5504027146277282</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.6295924612929596</v>
+        <v>0.6253403632033147</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>608</v>
@@ -8787,19 +8787,19 @@
         <v>475121</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>448162</v>
+        <v>449442</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>498938</v>
+        <v>500424</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.5853671566589503</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.5521524155014007</v>
+        <v>0.5537298693925871</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.6147105825891719</v>
+        <v>0.6165412682613266</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>991</v>
@@ -8808,19 +8808,19 @@
         <v>949857</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>909796</v>
+        <v>911162</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>990708</v>
+        <v>988951</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.5887419664821312</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.5639113241060553</v>
+        <v>0.5647577856810362</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.6140625360239969</v>
+        <v>0.6129736231516826</v>
       </c>
     </row>
     <row r="17">
@@ -8837,19 +8837,19 @@
         <v>231518</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>203534</v>
+        <v>206746</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>261962</v>
+        <v>261038</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2887821273511845</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.253876157374481</v>
+        <v>0.2578831773474155</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3267564748197428</v>
+        <v>0.3256039012850536</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>319</v>
@@ -8858,19 +8858,19 @@
         <v>244131</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>222078</v>
+        <v>220111</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>268183</v>
+        <v>267254</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.3007781963045706</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2736090070975807</v>
+        <v>0.2711847221391498</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3304116953802109</v>
+        <v>0.329267810965497</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>524</v>
@@ -8879,19 +8879,19 @@
         <v>475648</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>439716</v>
+        <v>438018</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>515701</v>
+        <v>513984</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2948171846637821</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2725453374694062</v>
+        <v>0.2714932692904843</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3196426522993342</v>
+        <v>0.3185785352226121</v>
       </c>
     </row>
     <row r="18">
@@ -8908,19 +8908,19 @@
         <v>77701</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>60119</v>
+        <v>59704</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>98436</v>
+        <v>98812</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.09692038819429247</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.07498945208421934</v>
+        <v>0.07447122609685228</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1227830685476356</v>
+        <v>0.1232519151275306</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>87</v>
@@ -8929,19 +8929,19 @@
         <v>67605</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>53934</v>
+        <v>53622</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>84518</v>
+        <v>84543</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.0832915431166643</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.06644842807085127</v>
+        <v>0.06606419722358299</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.104129191880656</v>
+        <v>0.1041608252264763</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>154</v>
@@ -8950,19 +8950,19 @@
         <v>145306</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>122688</v>
+        <v>121931</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>172320</v>
+        <v>171458</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.09006390366860267</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.07604451909430912</v>
+        <v>0.07557523407200693</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1068074527688903</v>
+        <v>0.1062735747455095</v>
       </c>
     </row>
     <row r="19">
@@ -8979,19 +8979,19 @@
         <v>16104</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>9981</v>
+        <v>10043</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>24913</v>
+        <v>26263</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.0200876028810346</v>
+        <v>0.02008760288103459</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.01244920547590063</v>
+        <v>0.01252711702550311</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.03107540091714364</v>
+        <v>0.03275844033198306</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>20</v>
@@ -9000,19 +9000,19 @@
         <v>14750</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>9176</v>
+        <v>9622</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>22491</v>
+        <v>22904</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.0181720086396187</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.01130557281388791</v>
+        <v>0.01185524247476529</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.02771021075136767</v>
+        <v>0.02821823208255906</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>38</v>
@@ -9021,19 +9021,19 @@
         <v>30854</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>22232</v>
+        <v>21642</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>42364</v>
+        <v>41679</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.01912389376269349</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.01377981288648178</v>
+        <v>0.01341387910151558</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.026258062820035</v>
+        <v>0.02583348658454773</v>
       </c>
     </row>
     <row r="20">
@@ -9053,7 +9053,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>6462</v>
+        <v>6183</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.002051184521221956</v>
@@ -9062,7 +9062,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.008059733333932473</v>
+        <v>0.007712759048537939</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>12</v>
@@ -9071,19 +9071,19 @@
         <v>10057</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>5172</v>
+        <v>5308</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>18894</v>
+        <v>20839</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.01239109528019607</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.006371524519219864</v>
+        <v>0.006540059356498315</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.02327805292823907</v>
+        <v>0.02567504623026062</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>14</v>
@@ -9092,19 +9092,19 @@
         <v>11702</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>6199</v>
+        <v>6585</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>21678</v>
+        <v>21408</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.007253051422790513</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.003842193893801293</v>
+        <v>0.004081475619460525</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.01343671354864726</v>
+        <v>0.01326941103097089</v>
       </c>
     </row>
     <row r="21">
@@ -9196,19 +9196,19 @@
         <v>616840</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>586210</v>
+        <v>584467</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>647016</v>
+        <v>646187</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.6281707817404008</v>
+        <v>0.628170781740401</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.5969779009158682</v>
+        <v>0.5952023824612583</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.6589000934147164</v>
+        <v>0.6580568293804732</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>919</v>
@@ -9217,19 +9217,19 @@
         <v>671300</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>643642</v>
+        <v>643528</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>700264</v>
+        <v>699989</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.6059957575448102</v>
+        <v>0.6059957575448101</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.5810284700821263</v>
+        <v>0.5809248007709416</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.6321418832788173</v>
+        <v>0.6318938250758176</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1509</v>
@@ -9238,19 +9238,19 @@
         <v>1288141</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1246245</v>
+        <v>1244549</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1332338</v>
+        <v>1331666</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.6164158080683753</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.596367190238407</v>
+        <v>0.5955559958820542</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.637565350247029</v>
+        <v>0.6372440506565026</v>
       </c>
     </row>
     <row r="23">
@@ -9267,19 +9267,19 @@
         <v>251454</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>225339</v>
+        <v>225153</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>277327</v>
+        <v>282315</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.256073072047226</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.229477849698232</v>
+        <v>0.2292882143574541</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2824206183095742</v>
+        <v>0.2875007644085433</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>424</v>
@@ -9288,19 +9288,19 @@
         <v>302422</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>274703</v>
+        <v>276869</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>329828</v>
+        <v>329979</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.2730018627533524</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.2479799522826715</v>
+        <v>0.2499351774365999</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.297742141607269</v>
+        <v>0.2978783766083383</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>704</v>
@@ -9309,19 +9309,19 @@
         <v>553876</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>513081</v>
+        <v>517584</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>592156</v>
+        <v>590673</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.2650470189207233</v>
+        <v>0.2650470189207234</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.2455253602571793</v>
+        <v>0.2476802288079354</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2833650281471377</v>
+        <v>0.2826556095984225</v>
       </c>
     </row>
     <row r="24">
@@ -9338,19 +9338,19 @@
         <v>70260</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>57636</v>
+        <v>54733</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>90444</v>
+        <v>87930</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.07155035683898299</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.05869466536824464</v>
+        <v>0.05573825060201657</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.09210481048585156</v>
+        <v>0.08954552692309733</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>103</v>
@@ -9359,19 +9359,19 @@
         <v>68549</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>55027</v>
+        <v>56259</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>83040</v>
+        <v>83786</v>
       </c>
       <c r="N24" s="6" t="n">
-        <v>0.06188076508184887</v>
+        <v>0.06188076508184889</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.04967364411547277</v>
+        <v>0.05078578429594059</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.07496219480715736</v>
+        <v>0.07563534248280956</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>180</v>
@@ -9380,19 +9380,19 @@
         <v>138809</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>119376</v>
+        <v>119449</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>162244</v>
+        <v>162425</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.06642450915007948</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.05712502762509093</v>
+        <v>0.05716025826695643</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.07763891768247165</v>
+        <v>0.07772546604721386</v>
       </c>
     </row>
     <row r="25">
@@ -9409,19 +9409,19 @@
         <v>31173</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>22206</v>
+        <v>21062</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>43879</v>
+        <v>43054</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.03174513819409784</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.02261409422709883</v>
+        <v>0.02144913042501889</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.04468520359280702</v>
+        <v>0.04384508916170583</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>75</v>
@@ -9430,19 +9430,19 @@
         <v>49127</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>39152</v>
+        <v>38327</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>61826</v>
+        <v>61229</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.04434832055655031</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.03534304398206143</v>
+        <v>0.0345986844171083</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.05581119641296137</v>
+        <v>0.05527221314758612</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>109</v>
@@ -9451,19 +9451,19 @@
         <v>80300</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>64748</v>
+        <v>65989</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>97158</v>
+        <v>96507</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.03842608138259841</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.03098382230003335</v>
+        <v>0.03157803825607448</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.04649328276581931</v>
+        <v>0.04618166515052747</v>
       </c>
     </row>
     <row r="26">
@@ -9480,19 +9480,19 @@
         <v>12236</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>6697</v>
+        <v>7154</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>19728</v>
+        <v>20847</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.01246065117929238</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.006820122737686999</v>
+        <v>0.007285395002908679</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.02009055321798051</v>
+        <v>0.02123009801909733</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>25</v>
@@ -9501,19 +9501,19 @@
         <v>16365</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>10583</v>
+        <v>10483</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>23625</v>
+        <v>23986</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.01477329406343821</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.009553464098390925</v>
+        <v>0.009463228078620984</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.0213266138924237</v>
+        <v>0.0216525456269084</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>40</v>
@@ -9522,19 +9522,19 @@
         <v>28601</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>20213</v>
+        <v>20390</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>38840</v>
+        <v>39018</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.0136865824782236</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.009672690561385238</v>
+        <v>0.00975736816909311</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.01858600982668268</v>
+        <v>0.01867134089815743</v>
       </c>
     </row>
     <row r="27">
@@ -9626,19 +9626,19 @@
         <v>2068923</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>2004626</v>
+        <v>2005338</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>2131231</v>
+        <v>2132063</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.5880103965661863</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.5697363052972019</v>
+        <v>0.5699387638664124</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.605718936418542</v>
+        <v>0.6059554766374632</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>2893</v>
@@ -9647,19 +9647,19 @@
         <v>2100407</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>2048689</v>
+        <v>2047846</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>2155155</v>
+        <v>2155346</v>
       </c>
       <c r="N28" s="6" t="n">
-        <v>0.5651409297729119</v>
+        <v>0.565140929772912</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.5512257021787634</v>
+        <v>0.5509987322255878</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.5798717344183851</v>
+        <v>0.5799230390735929</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>4753</v>
@@ -9668,19 +9668,19 @@
         <v>4169331</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>4088708</v>
+        <v>4084142</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>4257090</v>
+        <v>4259377</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.5762625893021227</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.5651193409066231</v>
+        <v>0.5644881947366543</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.5883921961189453</v>
+        <v>0.5887083565242173</v>
       </c>
     </row>
     <row r="29">
@@ -9697,19 +9697,19 @@
         <v>1014821</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>960498</v>
+        <v>961796</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>1072845</v>
+        <v>1079819</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.2884232393247369</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.2729838030637594</v>
+        <v>0.2733528907031332</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.3049142376288448</v>
+        <v>0.3068961412800323</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>1690</v>
@@ -9718,19 +9718,19 @@
         <v>1137531</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>1090852</v>
+        <v>1091513</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>1189320</v>
+        <v>1187121</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.3060670931315732</v>
+        <v>0.3060670931315733</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.2935074020778128</v>
+        <v>0.2936852319739073</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.3200014923762968</v>
+        <v>0.3194098879669696</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>2725</v>
@@ -9739,19 +9739,19 @@
         <v>2152353</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>2066991</v>
+        <v>2072273</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>2224000</v>
+        <v>2219023</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.2974867035406575</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.2856885058721296</v>
+        <v>0.2864185196599546</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.3073893758419269</v>
+        <v>0.306701427765834</v>
       </c>
     </row>
     <row r="30">
@@ -9768,19 +9768,19 @@
         <v>280208</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>245603</v>
+        <v>246424</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>316322</v>
+        <v>316031</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.0796381122966708</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.06980296189398101</v>
+        <v>0.07003640684556935</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.08990208253746113</v>
+        <v>0.08981951116938659</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>430</v>
@@ -9789,19 +9789,19 @@
         <v>275740</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>247806</v>
+        <v>252597</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>300449</v>
+        <v>304907</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>0.07419140158342301</v>
+        <v>0.07419140158342302</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.06667523693504307</v>
+        <v>0.06796440485934732</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.0808395217075127</v>
+        <v>0.08203899962697669</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>713</v>
@@ -9810,19 +9810,19 @@
         <v>555948</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>518198</v>
+        <v>517902</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>599874</v>
+        <v>599540</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.07684019364553885</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.07162255330077898</v>
+        <v>0.07158169453599032</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.08291135679152634</v>
+        <v>0.08286527534826726</v>
       </c>
     </row>
     <row r="31">
@@ -9839,19 +9839,19 @@
         <v>105243</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>88110</v>
+        <v>88227</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>127883</v>
+        <v>127540</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.02991131856426991</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.02504190339809174</v>
+        <v>0.02507507170877188</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.0363458637425303</v>
+        <v>0.03624834152921125</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>236</v>
@@ -9860,19 +9860,19 @@
         <v>147855</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>129993</v>
+        <v>130659</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>169274</v>
+        <v>169660</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>0.03978231518846222</v>
+        <v>0.03978231518846221</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.03497612253382808</v>
+        <v>0.03515534937737411</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.04554518131906533</v>
+        <v>0.0456492893361834</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>358</v>
@@ -9881,19 +9881,19 @@
         <v>253099</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>226089</v>
+        <v>228002</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>280495</v>
+        <v>283970</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.03498194687814631</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.03124883742223061</v>
+        <v>0.03151326276658015</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.03876846395881238</v>
+        <v>0.03924874658117573</v>
       </c>
     </row>
     <row r="32">
@@ -9910,19 +9910,19 @@
         <v>49319</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>37810</v>
+        <v>35762</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>63145</v>
+        <v>62597</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.0140169332481361</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.01074603567467514</v>
+        <v>0.0101640513001853</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.01794658921000927</v>
+        <v>0.01779079329625109</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>85</v>
@@ -9931,19 +9931,19 @@
         <v>55074</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>43999</v>
+        <v>43912</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>68602</v>
+        <v>69418</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.01481826032362965</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.01183851947477127</v>
+        <v>0.01181511094343067</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.01845811168358608</v>
+        <v>0.01867776869575383</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>144</v>
@@ -9952,19 +9952,19 @@
         <v>104392</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>87777</v>
+        <v>86224</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>124502</v>
+        <v>122435</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.01442856663353459</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.01213210528908918</v>
+        <v>0.0119174401488033</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.01720799665617388</v>
+        <v>0.01692231087531263</v>
       </c>
     </row>
     <row r="33">
